--- a/new-stats/venezia-fc.xlsx
+++ b/new-stats/venezia-fc.xlsx
@@ -2430,22 +2430,62 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>27/04/2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M35" t="n">
+        <v>15</v>
+      </c>
+      <c r="N35" t="n">
+        <v>12</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>

--- a/new-stats/venezia-fc.xlsx
+++ b/new-stats/venezia-fc.xlsx
@@ -2488,22 +2488,62 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>02/05/2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M36" t="n">
+        <v>7</v>
+      </c>
+      <c r="N36" t="n">
+        <v>19</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>

--- a/new-stats/venezia-fc.xlsx
+++ b/new-stats/venezia-fc.xlsx
@@ -2546,22 +2546,62 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="M37" t="n">
+        <v>9</v>
+      </c>
+      <c r="N37" t="n">
+        <v>16</v>
+      </c>
+      <c r="O37" t="n">
+        <v>4</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>

--- a/new-stats/venezia-fc.xlsx
+++ b/new-stats/venezia-fc.xlsx
@@ -2604,22 +2604,62 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M38" t="n">
+        <v>10</v>
+      </c>
+      <c r="N38" t="n">
+        <v>20</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>

--- a/new-stats/venezia-fc.xlsx
+++ b/new-stats/venezia-fc.xlsx
@@ -2662,22 +2662,62 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M39" t="n">
+        <v>12</v>
+      </c>
+      <c r="N39" t="n">
+        <v>15</v>
+      </c>
+      <c r="O39" t="n">
+        <v>5</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>

--- a/new-stats/venezia-fc.xlsx
+++ b/new-stats/venezia-fc.xlsx
@@ -516,22 +516,62 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>24/08/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="M2" t="n">
+        <v>20</v>
+      </c>
+      <c r="N2" t="n">
+        <v>12</v>
+      </c>
+      <c r="O2" t="n">
+        <v>8</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>

--- a/new-stats/venezia-fc.xlsx
+++ b/new-stats/venezia-fc.xlsx
@@ -574,22 +574,62 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>30/08/2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Juve Stabia</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>17</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>

--- a/new-stats/venezia-fc.xlsx
+++ b/new-stats/venezia-fc.xlsx
@@ -632,22 +632,62 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>13/09/2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pescara</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M4" t="n">
+        <v>12</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>

--- a/new-stats/venezia-fc.xlsx
+++ b/new-stats/venezia-fc.xlsx
@@ -690,22 +690,62 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Cesena</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>17</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>

--- a/new-stats/venezia-fc.xlsx
+++ b/new-stats/venezia-fc.xlsx
@@ -748,22 +748,62 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>27/09/2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Spezia</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>

--- a/new-stats/venezia-fc.xlsx
+++ b/new-stats/venezia-fc.xlsx
@@ -806,22 +806,62 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>30/09/2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="M7" t="n">
+        <v>11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>

--- a/new-stats/venezia-fc.xlsx
+++ b/new-stats/venezia-fc.xlsx
@@ -864,22 +864,62 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>04/10/2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M8" t="n">
+        <v>17</v>
+      </c>
+      <c r="N8" t="n">
+        <v>17</v>
+      </c>
+      <c r="O8" t="n">
+        <v>8</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>

--- a/new-stats/venezia-fc.xlsx
+++ b/new-stats/venezia-fc.xlsx
@@ -922,22 +922,62 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>19/10/2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M9" t="n">
+        <v>16</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
